--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail3 Features.xlsx
@@ -5282,7 +5282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5293,29 +5293,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5336,115 +5334,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5461,72 +5449,66 @@
         <v>1.309117080470725e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.375611593402641</v>
+        <v>1.032705390504977e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6.084219967384975</v>
+        <v>2.971221130234209e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.032705390504977e-06</v>
+        <v>0.131623888152875</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.971221130234209e-06</v>
+        <v>0.4036931884467188</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.131623888152875</v>
+        <v>0.179893044345894</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.4036931884467188</v>
+        <v>1.410466342272209</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.179893044345894</v>
+        <v>1.394829570594359</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.337829857633311</v>
+        <v>3.876926201177664</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.394829570594359</v>
+        <v>1.793333654855588e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.876926201177664</v>
+        <v>13939087.82058202</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.793333654855588e-14</v>
+        <v>6.79414134980827e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>13939087.82058202</v>
+        <v>3.484414460285357</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.79414134980827e-06</v>
+        <v>0.0001231452263815024</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3.484414460285357</v>
+        <v>7.638301543454038</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001231452263815024</v>
+        <v>1.349638832201113</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.638301543454038</v>
+        <v>0.007184742044895295</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.349638832201113</v>
+        <v>3.123528008078357</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.007184742044895295</v>
+        <v>0.9210010408196477</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.123528008078357</v>
+        <v>1.936460430905175</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9210010408196477</v>
+        <v>9</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.936460430905175</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1805891288280805</v>
       </c>
     </row>
@@ -5541,72 +5523,66 @@
         <v>1.130095753037372e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.1633658998685774</v>
+        <v>7.407076326621478e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.15314876242722</v>
+        <v>2.985885155468907e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.407076326621478e-07</v>
+        <v>0.1085612630390156</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.985885155468907e-06</v>
+        <v>0.3430509304478274</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.1085612630390156</v>
+        <v>0.1291308638168414</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3430509304478274</v>
+        <v>1.375932748428405</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1291308638168414</v>
+        <v>1.384579331955762</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.305769108818684</v>
+        <v>3.680804747034117</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.384579331955762</v>
+        <v>1.989530522729489e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.680804747034117</v>
+        <v>12640461.30179923</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.989530522729489e-14</v>
+        <v>7.270216020387454e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>12640461.30179923</v>
+        <v>3.17889697554619</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>7.270216020387454e-06</v>
+        <v>0.0001256192911167491</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3.17889697554619</v>
+        <v>7.082740667370957</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001256192911167491</v>
+        <v>1.499553852439826</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.082740667370957</v>
+        <v>0.006301718792396813</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.499553852439826</v>
+        <v>3.12475181205897</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006301718792396813</v>
+        <v>0.9160821859178894</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.12475181205897</v>
+        <v>1.921229628479861</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9160821859178894</v>
+        <v>9</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.921229628479861</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1781813824573346</v>
       </c>
     </row>
@@ -5621,72 +5597,66 @@
         <v>1.095581297045505e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.6984208313398899</v>
+        <v>5.220746459332146e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.2835601780217867</v>
+        <v>2.996077707306653e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.220746459332146e-07</v>
+        <v>0.07621816389176971</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.996077707306653e-06</v>
+        <v>0.25493779813901</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.07621816389176971</v>
+        <v>0.07062977474137698</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.25493779813901</v>
+        <v>1.363043011167614</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.07062977474137698</v>
+        <v>1.377218319074431</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.290334476244605</v>
+        <v>3.758145320337472</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.377218319074431</v>
+        <v>1.908486218508878e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.758145320337472</v>
+        <v>13209873.31764309</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.908486218508878e-14</v>
+        <v>6.901329407549363e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>13209873.31764309</v>
+        <v>3.330322823500402</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.901329407549363e-06</v>
+        <v>0.0001248645967921248</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3.330322823500402</v>
+        <v>7.525211545521881</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001248645967921248</v>
+        <v>1.248832858576901</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.525211545521881</v>
+        <v>0.007070933378236647</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.248832858576901</v>
+        <v>3.027273725694773</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007070933378236647</v>
+        <v>0.9134276783469871</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.027273725694773</v>
+        <v>1.919916521069869</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9134276783469871</v>
+        <v>9</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.919916521069869</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1863154489429818</v>
       </c>
     </row>
@@ -5701,72 +5671,66 @@
         <v>1.118149486640488e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7203422678416429</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.1247153744520615</v>
+        <v>3.002986374423672e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>0.05072391673859129</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.002986374423672e-06</v>
+        <v>0.195337275033036</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.05072391673859129</v>
+        <v>0.04066459234229152</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.195337275033036</v>
+        <v>1.358583100791694</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04066459234229152</v>
+        <v>1.366084150201359</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.283760193612073</v>
+        <v>3.879565801818933</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.366084150201359</v>
+        <v>1.790894168303899e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.879565801818933</v>
+        <v>13960755.85526964</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.790894168303899e-14</v>
+        <v>6.488448926105109e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>13960755.85526964</v>
+        <v>3.490501160706037</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.488448926105109e-06</v>
+        <v>0.0001265214650732529</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3.490501160706037</v>
+        <v>7.895233451872611</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001265214650732529</v>
+        <v>1.240470157468133</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.895233451872611</v>
+        <v>0.007886678993478774</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.240470157468133</v>
+        <v>2.96014453683272</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007886678993478774</v>
+        <v>0.9139727783677415</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.96014453683272</v>
+        <v>1.940978797867857</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9139727783677415</v>
+        <v>12</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.940978797867857</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1923111916199815</v>
       </c>
     </row>
@@ -5781,72 +5745,66 @@
         <v>1.151244709813888e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.6643938454920368</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.09823311571405258</v>
+        <v>3.007723764481515e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>0.03416538166944003</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.007723764481515e-06</v>
+        <v>0.1664376982511562</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03416538166944003</v>
+        <v>0.02884501507590859</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1664376982511562</v>
+        <v>1.35968410768445</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02884501507590859</v>
+        <v>1.343580429014457</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.287793520539299</v>
+        <v>4.094038308660927</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.343580429014457</v>
+        <v>1.608171505652269e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.094038308660927</v>
+        <v>15523022.95528877</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.608171505652269e-14</v>
+        <v>5.822136910229141e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>15523022.95528877</v>
+        <v>3.875118273354799</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.822136910229141e-06</v>
+        <v>0.0001258753243651479</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3.875118273354799</v>
+        <v>7.964933512251609</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001258753243651479</v>
+        <v>1.236952921678748</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.964933512251609</v>
+        <v>0.00798555145472514</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.236952921678748</v>
+        <v>2.95557095635801</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00798555145472514</v>
+        <v>0.9146374426502422</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.95557095635801</v>
+        <v>1.925615219701215</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9146374426502422</v>
+        <v>12</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.925615219701215</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1939948941759774</v>
       </c>
     </row>
@@ -5861,72 +5819,66 @@
         <v>1.18054311526544e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.6184790238176553</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.2993373731366153</v>
+        <v>3.01105041841483e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>0.02385592115664539</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.01105041841483e-06</v>
+        <v>0.1538858459865311</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.02385592115664539</v>
+        <v>0.02424229937535277</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1538858459865311</v>
+        <v>1.399181051180162</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02424229937535277</v>
+        <v>1.450719785888747</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.322304306977039</v>
+        <v>3.971314131319273</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.450719785888747</v>
+        <v>1.44984878372978e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.971314131319273</v>
+        <v>16674153.55318543</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.44984878372978e-14</v>
+        <v>5.62053705082158e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>16674153.55318543</v>
+        <v>4.030976829710989</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.62053705082158e-06</v>
+        <v>0.0001281980602517427</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>4.030976829710989</v>
+        <v>6.966053357621483</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001281980602517427</v>
+        <v>1.525091657644291</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.966053357621483</v>
+        <v>0.006220926172644867</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.525091657644291</v>
+        <v>3.121602234592609</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.006220926172644867</v>
+        <v>0.9231470042006025</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.121602234592609</v>
+        <v>1.903446288631753</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9231470042006025</v>
+        <v>11</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.903446288631753</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1757731590687776</v>
       </c>
     </row>
@@ -5941,72 +5893,66 @@
         <v>1.204269686518939e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.5857651866351921</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.4535169755958131</v>
+        <v>3.013522694649964e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>0.01832714376870372</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.013522694649964e-06</v>
+        <v>0.1485518216159715</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01832714376870372</v>
+        <v>0.02240181833788073</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1485518216159715</v>
+        <v>1.438197784158865</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02240181833788073</v>
+        <v>1.415868899178609</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.356811825634818</v>
+        <v>3.990190569062611</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.415868899178609</v>
+        <v>1.436163600112437e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.990190569062611</v>
+        <v>16266720.23208784</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.436163600112437e-14</v>
+        <v>5.979340914295737e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>16266720.23208784</v>
+        <v>3.800177742905096</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.979340914295737e-06</v>
+        <v>0.0001407091375940983</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>3.800177742905096</v>
+        <v>7.616382291929434</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001407091375940983</v>
+        <v>1.644531931885076</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.616382291929434</v>
+        <v>0.008162435651053464</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.644531931885076</v>
+        <v>3.070508833539663</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.008162435651053464</v>
+        <v>0.9218936118005359</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.070508833539663</v>
+        <v>1.92979134433402</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9218936118005359</v>
+        <v>11</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.92979134433402</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1625287640741969</v>
       </c>
     </row>
@@ -6021,72 +5967,66 @@
         <v>1.225007161245884e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.5603909232048907</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.5768769626003842</v>
+        <v>3.01560794175084e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>0.01660691970753433</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.01560794175084e-06</v>
+        <v>0.1456078363168888</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.01660691970753433</v>
+        <v>0.02147693581384153</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1456078363168888</v>
+        <v>1.463703970619512</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02147693581384153</v>
+        <v>1.516570434369881</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.381714671739587</v>
+        <v>4.145428245943802</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.516570434369881</v>
+        <v>1.408505523199598e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.145428245943802</v>
+        <v>16502246.33897368</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.408505523199598e-14</v>
+        <v>5.950050822504199e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>16502246.33897368</v>
+        <v>3.835700471665608</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.950050822504199e-06</v>
+        <v>0.0001313832197574486</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>3.835700471665608</v>
+        <v>8.823123016156444</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001313832197574486</v>
+        <v>1.173577041504204</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.823123016156444</v>
+        <v>0.0102278551683034</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.173577041504204</v>
+        <v>2.938095725247027</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0102278551683034</v>
+        <v>0.9259950791715724</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.938095725247027</v>
+        <v>1.930294370481323</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9259950791715724</v>
+        <v>11</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.930294370481323</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1749091870476721</v>
       </c>
     </row>
@@ -6101,72 +6041,66 @@
         <v>1.246649634151545e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.5387413531400672</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.6879613448048043</v>
+        <v>3.017715973656334e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>0.0178361997912605</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.017715973656334e-06</v>
+        <v>0.1436423942758794</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.0178361997912605</v>
+        <v>0.02095030337373677</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1436423942758794</v>
+        <v>1.432933176096638</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02095030337373677</v>
+        <v>1.439696690580278</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.359276642522025</v>
+        <v>4.081854928661793</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.439696690580278</v>
+        <v>1.470428130822802e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.081854928661793</v>
+        <v>16591869.29250096</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.470428130822802e-14</v>
+        <v>5.662070828419906e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>16591869.29250096</v>
+        <v>4.0479434631899</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.662070828419906e-06</v>
+        <v>0.000128516643222405</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>4.0479434631899</v>
+        <v>8.881271615911134</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000128516643222405</v>
+        <v>1.104595910975493</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.881271615911134</v>
+        <v>0.01013700540596573</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.104595910975493</v>
+        <v>2.838131183316121</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01013700540596573</v>
+        <v>0.92486247142059</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.838131183316121</v>
+        <v>1.873460475493122</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.92486247142059</v>
+        <v>12</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.873460475493122</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1871377537760548</v>
       </c>
     </row>
@@ -6181,72 +6115,66 @@
         <v>1.270732743771906e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.5184252223512611</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.7937793344075912</v>
+        <v>3.020033807879212e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>0.01861748172401134</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.020033807879212e-06</v>
+        <v>0.1410072126075973</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.01861748172401134</v>
+        <v>0.02022939440001537</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1410072126075973</v>
+        <v>1.412078472297852</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02022939440001537</v>
+        <v>1.410764097661731</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.33398455114989</v>
+        <v>3.733526516237437</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.410764097661731</v>
+        <v>1.757601657909821e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.733526516237437</v>
+        <v>14587897.60915278</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.757601657909821e-14</v>
+        <v>6.445855092362585e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>14587897.60915278</v>
+        <v>3.7402950831146</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.445855092362585e-06</v>
+        <v>0.0001280461220839985</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>3.7402950831146</v>
+        <v>7.449102663610329</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001280461220839985</v>
+        <v>1.327138930033468</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.449102663610329</v>
+        <v>0.007105167977442435</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.327138930033468</v>
+        <v>3.062656997734932</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.007105167977442435</v>
+        <v>0.9229542059529808</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.062656997734932</v>
+        <v>1.927499108788872</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9229542059529808</v>
+        <v>9</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.927499108788872</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1773264632917999</v>
       </c>
     </row>
@@ -6261,72 +6189,66 @@
         <v>1.293059542232982e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.4929621208601627</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.8958687523685578</v>
+        <v>3.022366334051865e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>0.01754149579875392</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.022366334051865e-06</v>
+        <v>0.1392428796241603</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.01754149579875392</v>
+        <v>0.01969394873597717</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1392428796241603</v>
+        <v>1.399593927378106</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01969394873597717</v>
+        <v>1.469055315613889</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.322429986299232</v>
+        <v>3.626394483232811</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.469055315613889</v>
+        <v>1.862982790524982e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.626394483232811</v>
+        <v>13844449.86211107</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.862982790524982e-14</v>
+        <v>6.732143486852076e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>13844449.86211107</v>
+        <v>3.570756609478497</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.732143486852076e-06</v>
+        <v>0.0001343797259463499</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>3.570756609478497</v>
+        <v>7.248978115530647</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001343797259463499</v>
+        <v>1.473789431808039</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.248978115530647</v>
+        <v>0.007061343337334121</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.473789431808039</v>
+        <v>3.076361427544166</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.007061343337334121</v>
+        <v>0.9211598654131593</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.076361427544166</v>
+        <v>1.923139613068173</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9211598654131593</v>
+        <v>8</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.923139613068173</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1700065951022064</v>
       </c>
     </row>
@@ -6341,72 +6263,66 @@
         <v>1.310497679928386e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.4602472525999837</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.9896575100841769</v>
+        <v>3.024542549596214e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>0.01578864121538691</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.024542549596214e-06</v>
+        <v>0.1391863767450152</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.01578864121538691</v>
+        <v>0.01961853885200498</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1391863767450152</v>
+        <v>1.39787218622808</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01961853885200498</v>
+        <v>1.429100764581649</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.318769144109189</v>
+        <v>3.624347119890335</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.429100764581649</v>
+        <v>1.865088151767907e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.624347119890335</v>
+        <v>13572895.76964678</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.865088151767907e-14</v>
+        <v>6.790048344382436e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>13572895.76964678</v>
+        <v>3.435930663321196</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>6.790048344382436e-06</v>
+        <v>0.0001374794318713826</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>3.435930663321196</v>
+        <v>8.066126588659289</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001374794318713826</v>
+        <v>1.334191696892073</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.066126588659289</v>
+        <v>0.00894474153306481</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.334191696892073</v>
+        <v>3.023510356277128</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.00894474153306481</v>
+        <v>0.9206357362334404</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.023510356277128</v>
+        <v>1.919975541775353</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9206357362334404</v>
+        <v>5</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.919975541775353</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1679659255351961</v>
       </c>
     </row>
@@ -6421,72 +6337,66 @@
         <v>1.322623489043696e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.4238063663201366</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.066683155753893</v>
+        <v>3.026495751192669e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>0.01380591362616484</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.026495751192669e-06</v>
+        <v>0.1402649085899084</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.01380591362616484</v>
+        <v>0.01986078031985301</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1402649085899084</v>
+        <v>1.417511828593428</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01986078031985301</v>
+        <v>1.3741903176995</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.337397531601065</v>
+        <v>3.706760758433913</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.3741903176995</v>
+        <v>1.783075859908119e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.706760758433913</v>
+        <v>14196764.60203096</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.783075859908119e-14</v>
+        <v>6.544771300379146e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>14196764.60203096</v>
+        <v>3.593755965923061</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>6.544771300379146e-06</v>
+        <v>0.0001320124367729434</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>3.593755965923061</v>
+        <v>9.138042875990241</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001320124367729434</v>
+        <v>1.173600834028798</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.138042875990241</v>
+        <v>0.01102354376179736</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.173600834028798</v>
+        <v>2.941681704227737</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01102354376179736</v>
+        <v>0.926166733692263</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.941681704227737</v>
+        <v>1.930459261472954</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.926166733692263</v>
+        <v>5</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.930459261472954</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.178990219018942</v>
       </c>
     </row>
@@ -6501,72 +6411,66 @@
         <v>1.330038012860742e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.3880245984217157</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.122259267176086</v>
+        <v>3.028191443593593e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>0.01168744434917045</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.028191443593593e-06</v>
+        <v>0.1420796358894482</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.01168744434917045</v>
+        <v>0.02031921021217927</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1420796358894482</v>
+        <v>1.410467315485226</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02031921021217927</v>
+        <v>1.368638873393164</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.33130187192413</v>
+        <v>3.909228133303297</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.368638873393164</v>
+        <v>1.603160126659491e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.909228133303297</v>
+        <v>15393598.89192307</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.603160126659491e-14</v>
+        <v>5.91981497346711e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>15393598.89192307</v>
+        <v>3.798894516886941</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>5.91981497346711e-06</v>
+        <v>0.0001244494987632857</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>3.798894516886941</v>
+        <v>9.154400925214246</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001244494987632857</v>
+        <v>1.114184132965347</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.154400925214246</v>
+        <v>0.01042924835131208</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.114184132965347</v>
+        <v>2.937840513718607</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01042924835131208</v>
+        <v>0.9249107512857105</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.937840513718607</v>
+        <v>1.946825361281708</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9249107512857105</v>
+        <v>22</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.946825361281708</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.188235062614389</v>
       </c>
     </row>
@@ -6581,72 +6485,66 @@
         <v>1.333729237583078e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.3565629635805403</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.156645782871801</v>
+        <v>3.029600766137115e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>0.009398289523026583</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.029600766137115e-06</v>
+        <v>0.1443409007963218</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.009398289523026583</v>
+        <v>0.02091895066004651</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1443409007963218</v>
+        <v>1.49280507996648</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02091895066004651</v>
+        <v>1.379039397474805</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.408276259976643</v>
+        <v>4.002794796390146</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.379039397474805</v>
+        <v>1.529087298254119e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.002794796390146</v>
+        <v>14418474.21643473</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.529087298254119e-14</v>
+        <v>6.827727329133792e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>14418474.21643473</v>
+        <v>3.178856263016132</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>6.827727329133792e-06</v>
+        <v>0.0001312268352161022</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>3.178856263016132</v>
+        <v>7.666484675796048</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001312268352161022</v>
+        <v>1.623359109705626</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.666484675796048</v>
+        <v>0.00771285557117427</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.623359109705626</v>
+        <v>3.166302813808997</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.00771285557117427</v>
+        <v>0.9340178470577687</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.166302813808997</v>
+        <v>1.8805479408168</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9340178470577687</v>
+        <v>21</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.8805479408168</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1719175060709737</v>
       </c>
     </row>
@@ -6661,72 +6559,66 @@
         <v>1.334829211564578e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.3319052867370477</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.173727196260489</v>
+        <v>3.030697625015206e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>0.006992725428354484</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.030697625015206e-06</v>
+        <v>0.1468023879354101</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.006992725428354484</v>
+        <v>0.02159646564866219</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1468023879354101</v>
+        <v>1.523257648499208</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02159646564866219</v>
+        <v>1.357808942889379</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.439388609897032</v>
+        <v>4.326103506792267</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.357808942889379</v>
+        <v>1.011744549773887e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.326103506792267</v>
+        <v>21114926.98294848</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.011744549773887e-14</v>
+        <v>4.752206967392907e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>21114926.98294848</v>
+        <v>4.510763332282335</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.752206967392907e-06</v>
+        <v>0.0001468029385797595</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>4.510763332282335</v>
+        <v>7.624475993443999</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001468029385797595</v>
+        <v>1.84174941956913</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.624475993443999</v>
+        <v>0.008534041524213998</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.84174941956913</v>
+        <v>3.142719543037257</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.008534041524213998</v>
+        <v>0.9388074982631566</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.142719543037257</v>
+        <v>1.918188091591313</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9388074982631566</v>
+        <v>21</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.918188091591313</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1620415837311796</v>
       </c>
     </row>
@@ -6741,72 +6633,66 @@
         <v>1.334463415576497e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.3151766025919837</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.17920038286603</v>
+        <v>3.03146678963747e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>0.004449173816542484</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.03146678963747e-06</v>
+        <v>0.1492551071873351</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.004449173816542484</v>
+        <v>0.02229403367329642</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1492551071873351</v>
+        <v>1.582230588725945</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.02229403367329642</v>
+        <v>1.495949837590874</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.499422449642374</v>
+        <v>4.574484618195138</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.495949837590874</v>
+        <v>7.946305004150959e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.574484618195138</v>
+        <v>26995600.57411763</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>7.946305004150959e-15</v>
+        <v>3.838459042881023e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>26995600.57411763</v>
+        <v>5.790968706111529</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.838459042881023e-06</v>
+        <v>0.0001327851817397878</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>5.790968706111529</v>
+        <v>8.3400190263309</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001327851817397878</v>
+        <v>1.333014481677816</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.3400190263309</v>
+        <v>0.009235995127667027</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.333014481677816</v>
+        <v>3.09072120208206</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.009235995127667027</v>
+        <v>0.945429783287377</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.09072120208206</v>
+        <v>1.868271808248929</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.945429783287377</v>
+        <v>21</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.868271808248929</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1746788042449997</v>
       </c>
     </row>
@@ -6821,72 +6707,66 @@
         <v>1.333774222611812e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.3068990726788683</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.179281122887439</v>
+        <v>3.031871702458112e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>0.001517960500475887</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.031871702458112e-06</v>
+        <v>0.1515130382574549</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.001517960500475887</v>
+        <v>0.022956182654572</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1515130382574549</v>
+        <v>1.600608588767927</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.022956182654572</v>
+        <v>1.512641163274187</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.526656979887272</v>
+        <v>4.616891540883659</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.512641163274187</v>
+        <v>7.800999125629716e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.616891540883659</v>
+        <v>27251047.11914105</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>7.800999125629716e-15</v>
+        <v>3.815921961070322e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>27251047.11914105</v>
+        <v>5.793174609143842</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.815921961070322e-06</v>
+        <v>0.0001256636192836764</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>5.793174609143842</v>
+        <v>8.994089446268005</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001256636192836764</v>
+        <v>1.205628434807144</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.994089446268005</v>
+        <v>0.01016538820366097</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.205628434807144</v>
+        <v>2.933655313458918</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01016538820366097</v>
+        <v>0.9463522613719779</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.933655313458918</v>
+        <v>1.828322823417651</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9463522613719779</v>
+        <v>21</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.828322823417651</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1945253609857182</v>
       </c>
     </row>
@@ -6901,72 +6781,66 @@
         <v>1.333839127831412e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.3070857983483884</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.179488070373624</v>
+        <v>3.031860194419081e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>-0.001751217638748118</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.031860194419081e-06</v>
+        <v>0.153228101351864</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.001751217638748118</v>
+        <v>0.02347998917779131</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.153228101351864</v>
+        <v>1.603635748875325</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02347998917779131</v>
+        <v>1.470335539351498</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.532988989973073</v>
+        <v>4.602428958681409</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.470335539351498</v>
+        <v>7.850103569337057e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.602428958681409</v>
+        <v>26972353.38369918</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>7.850103569337057e-15</v>
+        <v>3.858251095862608e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>26972353.38369918</v>
+        <v>5.71101194688834</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.858251095862608e-06</v>
+        <v>0.0001206260118162626</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>5.71101194688834</v>
+        <v>8.200867525897962</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001206260118162626</v>
+        <v>1.242229299535908</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.200867525897962</v>
+        <v>0.008112609322811959</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.242229299535908</v>
+        <v>3.026216807589792</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.008112609322811959</v>
+        <v>0.9457743388777241</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.026216807589792</v>
+        <v>1.869652435382579</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9457743388777241</v>
+        <v>18</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.869652435382579</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1986321028362951</v>
       </c>
     </row>
@@ -6981,72 +6855,66 @@
         <v>1.335430695332707e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.3150235101201483</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.183240633057568</v>
+        <v>3.031401373975117e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>-0.005067665896083058</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.031401373975117e-06</v>
+        <v>0.1542089966126346</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.005067665896083058</v>
+        <v>0.02380465898115463</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1542089966126346</v>
+        <v>1.616730648775985</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.02380465898115463</v>
+        <v>1.477892047103129</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.543409218918686</v>
+        <v>4.586159356801355</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.477892047103129</v>
+        <v>7.905899538273773e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.586159356801355</v>
+        <v>27412053.76740515</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>7.905899538273773e-15</v>
+        <v>3.839732540068461e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>27412053.76740515</v>
+        <v>5.940656499932843</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.839732540068461e-06</v>
+        <v>0.0001182084334834947</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>5.940656499932843</v>
+        <v>7.397011352204574</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001182084334834947</v>
+        <v>1.289864374837733</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>7.397011352204574</v>
+        <v>0.006467866279458606</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.289864374837733</v>
+        <v>3.129050279293505</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.006467866279458606</v>
+        <v>0.946047057502454</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.129050279293505</v>
+        <v>1.872955255354942</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.946047057502454</v>
+        <v>18</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.872955255354942</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.196509986831119</v>
       </c>
     </row>
@@ -7061,72 +6929,66 @@
         <v>1.338773846603734e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.3283611587970623</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.191295627628794</v>
+        <v>3.03055752827383e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>-0.007332582098599736</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.03055752827383e-06</v>
+        <v>0.1546423265870201</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.007332582098599736</v>
+        <v>0.02396711627881517</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1546423265870201</v>
+        <v>1.625072328246449</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02396711627881517</v>
+        <v>1.442228266060716</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.556590233230244</v>
+        <v>4.592018445722868</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.442228266060716</v>
+        <v>7.885737678054455e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.592018445722868</v>
+        <v>27631044.6321838</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>7.885737678054455e-15</v>
+        <v>3.815835526779411e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>27631044.6321838</v>
+        <v>6.020560636045121</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.815835526779411e-06</v>
+        <v>0.0001231445558751476</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>6.020560636045121</v>
+        <v>7.084792776727848</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001231445558751476</v>
+        <v>1.46129128274773</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.084792776727848</v>
+        <v>0.006181153388097413</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.46129128274773</v>
+        <v>3.178894734987496</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.006181153388097413</v>
+        <v>0.9476493249541599</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.178894734987496</v>
+        <v>1.840633358002076</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9476493249541599</v>
+        <v>18</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.840633358002076</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1872547731125823</v>
       </c>
     </row>
@@ -7141,72 +7003,66 @@
         <v>1.343582491149204e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.3431849956060457</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.202753158480286</v>
+        <v>3.02949645392566e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>-0.008335875544123635</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.02949645392566e-06</v>
+        <v>0.1544901381505466</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.008335875544123635</v>
+        <v>0.02393613640825446</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1544901381505466</v>
+        <v>1.632033887639477</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02393613640825446</v>
+        <v>1.407262536324532</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.563840021113746</v>
+        <v>4.690709657293346</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.407262536324532</v>
+        <v>7.557401051109481e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.690709657293346</v>
+        <v>28420282.81184397</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>7.557401051109481e-15</v>
+        <v>3.706518676587841e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>28420282.81184397</v>
+        <v>6.104207108354232</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.706518676587841e-06</v>
+        <v>0.000141432128119334</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>6.104207108354232</v>
+        <v>8.738092154661487</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.000141432128119334</v>
+        <v>1.361044303345387</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.738092154661487</v>
+        <v>0.01079894470537497</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.361044303345387</v>
+        <v>3.040368802690547</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01079894470537497</v>
+        <v>0.9482582969622488</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.040368802690547</v>
+        <v>1.880303896269503</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9482582969622488</v>
+        <v>18</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.880303896269503</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1808252658704159</v>
       </c>
     </row>
@@ -7221,72 +7077,66 @@
         <v>1.349331320744045e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.3571242232250212</v>
+        <v>4.413738322469182e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.216021945110693</v>
+        <v>3.028356084886869e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>4.413738322469182e-07</v>
+        <v>-0.008500184077589288</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.028356084886869e-06</v>
+        <v>0.1538980214106973</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.008500184077589288</v>
+        <v>0.02375666212544557</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1538980214106973</v>
+        <v>1.639290716237264</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02375666212544557</v>
+        <v>1.378918633492903</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.573559232013518</v>
+        <v>4.981696002155022</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.378918633492903</v>
+        <v>6.700313598401491e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.981696002155022</v>
+        <v>31909765.16968554</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>6.700313598401491e-15</v>
+        <v>3.303649285500871e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>31909765.16968554</v>
+        <v>6.822481174612632</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.303649285500871e-06</v>
+        <v>0.0001966726984568759</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>6.822481174612632</v>
+        <v>13.24356866101491</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001966726984568759</v>
+        <v>0.9889379846212371</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>13.24356866101491</v>
+        <v>0.03449483973462372</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>0.9889379846212371</v>
+        <v>2.385097141854577</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.03449483973462372</v>
+        <v>0.9470393969835286</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.385097141854577</v>
+        <v>1.88058415692777</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9470393969835286</v>
+        <v>18</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.88058415692777</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1903725639056853</v>
       </c>
     </row>
@@ -7663,7 +7513,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.555980277673305</v>
+        <v>1.551051723223454</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.5857298896378</v>
@@ -7752,7 +7602,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.56476293457256</v>
+        <v>1.560707655799543</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.44297086662677</v>
@@ -7841,7 +7691,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.596290660532129</v>
+        <v>1.586984662116344</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.355203743343035</v>
@@ -7930,7 +7780,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.60568208834035</v>
+        <v>1.598995458499918</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.453028084110904</v>
@@ -8019,7 +7869,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.588251988316921</v>
+        <v>1.586434781218759</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.623865804517211</v>
@@ -8108,7 +7958,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.588090616165821</v>
+        <v>1.586306501702311</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.722247893639896</v>
@@ -8197,7 +8047,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.56980364252087</v>
+        <v>1.568297625043421</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.679129526616953</v>
@@ -8286,7 +8136,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.566635755310903</v>
+        <v>1.568008284697777</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.672250750652873</v>
@@ -8375,7 +8225,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.566828038027326</v>
+        <v>1.565244794131545</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.628275520815462</v>
@@ -8464,7 +8314,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.576252601153949</v>
+        <v>1.571155695703562</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.67334938759158</v>
@@ -8553,7 +8403,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.602022316956504</v>
+        <v>1.595527169123522</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.626128854116369</v>
@@ -8642,7 +8492,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.59118943262891</v>
+        <v>1.585912497805677</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.666720207608818</v>
@@ -8731,7 +8581,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.574266751839365</v>
+        <v>1.575899093877243</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.619664001397799</v>
@@ -8820,7 +8670,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.571319175897409</v>
+        <v>1.573891719246542</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.687059104378505</v>
@@ -8909,7 +8759,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.568056711255333</v>
+        <v>1.570311576503667</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.690114754554784</v>
@@ -8998,7 +8848,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.565122737997201</v>
+        <v>1.571119778266171</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.737408641283866</v>
@@ -9087,7 +8937,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.585306739248507</v>
+        <v>1.590144441412422</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.754566630038511</v>
@@ -9176,7 +9026,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.593170878216012</v>
+        <v>1.593044196489422</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.736856196516974</v>
@@ -9265,7 +9115,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.611651153173758</v>
+        <v>1.609925358871165</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.652515004705552</v>
@@ -9354,7 +9204,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.676925536139082</v>
+        <v>1.665865444878869</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.628985477244698</v>
@@ -9443,7 +9293,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.683989841639289</v>
+        <v>1.672028380279025</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.814225281789842</v>
@@ -9532,7 +9382,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.718153436596184</v>
+        <v>1.701426259566596</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.850907213219318</v>
@@ -9621,7 +9471,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.632821257683411</v>
+        <v>1.624062450016674</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.905129205619769</v>
@@ -9710,7 +9560,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.59686352416773</v>
+        <v>1.606258170786115</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.923149573125975</v>
@@ -9799,7 +9649,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.587138225443895</v>
+        <v>1.598050521535253</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.914970914122395</v>
@@ -9888,7 +9738,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.58794374769736</v>
+        <v>1.597933465414025</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.914008463016964</v>
@@ -9977,7 +9827,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.611329074636153</v>
+        <v>1.618748898554076</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.916930502855257</v>
@@ -10066,7 +9916,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.627435416359188</v>
+        <v>1.630070656209399</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.905903359777887</v>
@@ -10155,7 +10005,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.635525138904977</v>
+        <v>1.63487212817228</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.923637550569418</v>
@@ -10244,7 +10094,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.619601097232077</v>
+        <v>1.619021993502916</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.926054187276483</v>
@@ -10333,7 +10183,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.588433573985117</v>
+        <v>1.594829754240628</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.917496141077925</v>
@@ -10422,7 +10272,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.593778851847431</v>
+        <v>1.604358059043687</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.883306513957464</v>
@@ -10511,7 +10361,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.591391218260861</v>
+        <v>1.604044502557647</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.932436204854419</v>
@@ -10600,7 +10450,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.573009564416712</v>
+        <v>1.585000967220033</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.914451890915582</v>
@@ -10689,7 +10539,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.573136975435019</v>
+        <v>1.584675402445294</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.946264782722333</v>
@@ -10778,7 +10628,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.547393955276579</v>
+        <v>1.557355807842662</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.947779399972713</v>
@@ -10867,7 +10717,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.510705730507635</v>
+        <v>1.526057191223442</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.902346176708666</v>
@@ -10956,7 +10806,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.585191871998227</v>
+        <v>1.597503082720736</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.108086348661617</v>
@@ -11045,7 +10895,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.584837161078561</v>
+        <v>1.597087369190091</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.808362563638534</v>
@@ -11134,7 +10984,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.586946272657465</v>
+        <v>1.600629996800911</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.581179761577559</v>
@@ -11223,7 +11073,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.578955342930042</v>
+        <v>1.5938786449303</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.680444695348075</v>
@@ -11312,7 +11162,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.552594385914426</v>
+        <v>1.564146101966529</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.558134195610588</v>
@@ -11401,7 +11251,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.524691715650745</v>
+        <v>1.53965051192745</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.623972585713658</v>
@@ -11490,7 +11340,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.514619061193247</v>
+        <v>1.528859567084235</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.617127434820474</v>
@@ -11579,7 +11429,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.538638872510602</v>
+        <v>1.554182369553544</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.266955167382967</v>
@@ -11668,7 +11518,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.554959032640039</v>
+        <v>1.566612896103578</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.764153112136407</v>
@@ -11757,7 +11607,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.542630292586563</v>
+        <v>1.549089818487837</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.616552454042718</v>
@@ -11846,7 +11696,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.526883162754896</v>
+        <v>1.537115498041753</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.735842807086842</v>
@@ -11935,7 +11785,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.54208137603597</v>
+        <v>1.55146741951919</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.559591345331965</v>
@@ -12024,7 +11874,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.534266947774629</v>
+        <v>1.542697055672661</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.501600825814462</v>
@@ -12113,7 +11963,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.567328605697542</v>
+        <v>1.573438468373785</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.37704287840924</v>
@@ -12202,7 +12052,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.593932181178875</v>
+        <v>1.594532500620598</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.566799676734938</v>
@@ -12291,7 +12141,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.594553290213162</v>
+        <v>1.59423077262016</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.424575705929623</v>
@@ -12380,7 +12230,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.616452351753823</v>
+        <v>1.611985084747173</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.538424295340171</v>
@@ -12469,7 +12319,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.616352503628051</v>
+        <v>1.61347199739703</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.637968305065145</v>
@@ -12558,7 +12408,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.636289796136773</v>
+        <v>1.627628455292694</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.76694276056915</v>
@@ -12647,7 +12497,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.629940628927111</v>
+        <v>1.628507581544308</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.357500305897028</v>
@@ -12736,7 +12586,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.617597703199125</v>
+        <v>1.621534281360979</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.589619742753089</v>
@@ -12825,7 +12675,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.617307699468495</v>
+        <v>1.617184697126353</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.686645730359949</v>
@@ -12914,7 +12764,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.623271129369269</v>
+        <v>1.620978388787721</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.546596027339876</v>
@@ -13003,7 +12853,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.626003019821783</v>
+        <v>1.619464661840687</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.66894042926413</v>
@@ -13092,7 +12942,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.630351158398693</v>
+        <v>1.62415128252554</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.577942764963136</v>
@@ -13181,7 +13031,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.633231208301314</v>
+        <v>1.623994346116964</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.64001503405871</v>
@@ -13270,7 +13120,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.646489827932276</v>
+        <v>1.637450339751413</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.637422106142992</v>
@@ -13359,7 +13209,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.659489959628869</v>
+        <v>1.644767365415912</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.688374918198921</v>
@@ -13448,7 +13298,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.657979142073766</v>
+        <v>1.643448493985999</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.602389669099371</v>
@@ -13537,7 +13387,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.669046538652104</v>
+        <v>1.657358106970802</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.645235360853002</v>
@@ -13626,7 +13476,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.675779208608271</v>
+        <v>1.660803786543585</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.582057302846869</v>
@@ -13912,7 +13762,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.483534417737403</v>
+        <v>1.462650029986306</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.592658164443076</v>
@@ -14001,7 +13851,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.480927185057847</v>
+        <v>1.457535773098423</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.540109883870687</v>
@@ -14090,7 +13940,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.491679752736227</v>
+        <v>1.473087988735504</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.541130033185222</v>
@@ -14179,7 +14029,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.498865176766541</v>
+        <v>1.482263737558921</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.657944356768406</v>
@@ -14268,7 +14118,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.5222989891095</v>
+        <v>1.512932094397188</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.40671423784545</v>
@@ -14357,7 +14207,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.509088633436345</v>
+        <v>1.5019054293567</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.563055044530508</v>
@@ -14446,7 +14296,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.527730860162571</v>
+        <v>1.516452071540064</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.238265301707297</v>
@@ -14535,7 +14385,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.525313899070543</v>
+        <v>1.512245308866395</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.423307303557449</v>
@@ -14624,7 +14474,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.52332145172017</v>
+        <v>1.509635250236846</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.400032004637003</v>
@@ -14713,7 +14563,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.52648352403206</v>
+        <v>1.502715841808227</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.350327412037603</v>
@@ -14802,7 +14652,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.526215834565414</v>
+        <v>1.501263411209377</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.351823418689563</v>
@@ -14891,7 +14741,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.51663937964981</v>
+        <v>1.49200647992796</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.296116686972197</v>
@@ -14980,7 +14830,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.520246045648789</v>
+        <v>1.495849625732651</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.375118748429054</v>
@@ -15069,7 +14919,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.526175172607895</v>
+        <v>1.503636502392464</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.360993803275125</v>
@@ -15158,7 +15008,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.538160828505558</v>
+        <v>1.509261071469955</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.429257753719774</v>
@@ -15247,7 +15097,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.53838084170855</v>
+        <v>1.512607329242063</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.398481485340302</v>
@@ -15336,7 +15186,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.533985254409235</v>
+        <v>1.508555479202882</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.335221991100824</v>
@@ -15425,7 +15275,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.516795696858384</v>
+        <v>1.486283628547211</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.384105054563124</v>
@@ -15514,7 +15364,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.494423876266485</v>
+        <v>1.459207915553247</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.376459320979069</v>
@@ -15603,7 +15453,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.494628944855029</v>
+        <v>1.459796812193996</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.228061768017096</v>
@@ -15692,7 +15542,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.529589116007892</v>
+        <v>1.478851458106168</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.646320410308437</v>
@@ -15781,7 +15631,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.512505475061044</v>
+        <v>1.469856927831697</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.435129615214279</v>
@@ -15870,7 +15720,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.500291206576163</v>
+        <v>1.455665716998842</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.478865076534542</v>
@@ -15959,7 +15809,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.498101182406053</v>
+        <v>1.457300105739207</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.342093994709264</v>
@@ -16048,7 +15898,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.489083024165423</v>
+        <v>1.4581108477792</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.35426637995389</v>
@@ -16137,7 +15987,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.490781375338808</v>
+        <v>1.461837300147546</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.429616383473658</v>
@@ -16226,7 +16076,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.496046085368847</v>
+        <v>1.463214425588331</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.286027081803569</v>
@@ -16315,7 +16165,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.518120301585643</v>
+        <v>1.478476835626686</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.399194667287443</v>
@@ -16404,7 +16254,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.51545182679631</v>
+        <v>1.480067208534706</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.484040462005181</v>
@@ -16493,7 +16343,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.509811513107634</v>
+        <v>1.480083263090123</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.51822649061084</v>
@@ -16582,7 +16432,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.49679749345334</v>
+        <v>1.469806019080438</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.502976400090682</v>
@@ -16671,7 +16521,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.51340983732729</v>
+        <v>1.489036155620347</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.229354618054325</v>
@@ -16760,7 +16610,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.522013821925289</v>
+        <v>1.494600027968717</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.588024651595849</v>
@@ -16849,7 +16699,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.512027400295909</v>
+        <v>1.487564836337296</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.440599590971746</v>
@@ -16938,7 +16788,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.499147983455622</v>
+        <v>1.481657553066842</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.551461723502564</v>
@@ -17027,7 +16877,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.526959919376379</v>
+        <v>1.507006787631852</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.544429672095294</v>
@@ -17116,7 +16966,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.508386204941188</v>
+        <v>1.486347051078206</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.700173096646618</v>
@@ -17205,7 +17055,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.526149316070148</v>
+        <v>1.503021334323499</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.323074942325108</v>
@@ -17294,7 +17144,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.536767947272467</v>
+        <v>1.514365308714047</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.434795594461907</v>
@@ -17383,7 +17233,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.528459844666701</v>
+        <v>1.506180164228656</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.714225973706051</v>
@@ -17472,7 +17322,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.537361388142321</v>
+        <v>1.518438500236357</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.717227524059856</v>
@@ -17561,7 +17411,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.540350030732827</v>
+        <v>1.511572412685598</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.680343626664983</v>
@@ -17650,7 +17500,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.534358903758051</v>
+        <v>1.510640946388395</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.709732970407044</v>
@@ -17739,7 +17589,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.533640876863936</v>
+        <v>1.508698773851738</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.89014105670535</v>
@@ -17828,7 +17678,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.538813736027129</v>
+        <v>1.51462982371096</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.458705520106876</v>
@@ -17917,7 +17767,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.547999508669493</v>
+        <v>1.523404367487461</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.724659034092031</v>
@@ -18006,7 +17856,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.542424550758252</v>
+        <v>1.515261317105844</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.699117039461492</v>
@@ -18095,7 +17945,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.53277614559528</v>
+        <v>1.509288019369962</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.789950982206256</v>
@@ -18184,7 +18034,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.533291875159325</v>
+        <v>1.508873625197946</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.61653431435222</v>
@@ -18273,7 +18123,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.531967515864429</v>
+        <v>1.5054607030901</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.776827221676545</v>
@@ -18362,7 +18212,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.531549085976239</v>
+        <v>1.505496464940881</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.84039805325164</v>
@@ -18451,7 +18301,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.532983148189597</v>
+        <v>1.506191059972233</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.880477585675048</v>
@@ -18540,7 +18390,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.517965206320999</v>
+        <v>1.494492402237284</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.965635688733649</v>
@@ -18629,7 +18479,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.498303792138571</v>
+        <v>1.477687992213613</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.630887841331043</v>
@@ -18718,7 +18568,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.488102002386025</v>
+        <v>1.474218213905816</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.848894037544974</v>
@@ -18807,7 +18657,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.481728728067987</v>
+        <v>1.460746950680768</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.867847108357199</v>
@@ -18896,7 +18746,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.481404093521739</v>
+        <v>1.464256721108894</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.881517580743032</v>
@@ -18985,7 +18835,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.457693921337072</v>
+        <v>1.442563405169629</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.191991901161813</v>
@@ -19074,7 +18924,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.450464432551634</v>
+        <v>1.433778992966225</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.145479737376024</v>
@@ -19163,7 +19013,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.455837070875828</v>
+        <v>1.437946911823764</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.18266780091</v>
@@ -19252,7 +19102,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.452166766200022</v>
+        <v>1.432957957277352</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.261011439635817</v>
@@ -19341,7 +19191,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.451789514157297</v>
+        <v>1.428701162762948</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.28541027843032</v>
@@ -19430,7 +19280,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.45534534620554</v>
+        <v>1.430780451257045</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.315400950032548</v>
@@ -19519,7 +19369,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.473880772017732</v>
+        <v>1.444463471692063</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.185644901175639</v>
@@ -19608,7 +19458,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.479502218787415</v>
+        <v>1.45264625581479</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.219748852543467</v>
@@ -19697,7 +19547,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.486563398736645</v>
+        <v>1.456920729966206</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.309019713751602</v>
@@ -19786,7 +19636,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.497757734527141</v>
+        <v>1.468476376849947</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.096790362785566</v>
@@ -19875,7 +19725,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.513921418106066</v>
+        <v>1.48211976704679</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.056075090939047</v>
@@ -20161,7 +20011,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.717390891547243</v>
+        <v>1.650119446790407</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.259699211076251</v>
@@ -20250,7 +20100,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.714965099459485</v>
+        <v>1.648943000805946</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.453835503657181</v>
@@ -20339,7 +20189,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.72347490887289</v>
+        <v>1.658607904616457</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.051539637954438</v>
@@ -20428,7 +20278,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.722243488440831</v>
+        <v>1.659040229718086</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.281581396825737</v>
@@ -20517,7 +20367,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.721959730065837</v>
+        <v>1.659236924094988</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.262571848729722</v>
@@ -20606,7 +20456,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.725047047902291</v>
+        <v>1.661596006542861</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.207291230246861</v>
@@ -20695,7 +20545,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.714957717703899</v>
+        <v>1.649546235890379</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.993137869195843</v>
@@ -20784,7 +20634,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.71735050368966</v>
+        <v>1.643361662923993</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.028272425145876</v>
@@ -20873,7 +20723,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.71833745239883</v>
+        <v>1.64001398913533</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.124664562598392</v>
@@ -20962,7 +20812,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.714396957147583</v>
+        <v>1.629544915116015</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.115745833458325</v>
@@ -21051,7 +20901,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.719190578887923</v>
+        <v>1.635287421242827</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.996339964031733</v>
@@ -21140,7 +20990,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.719256992005186</v>
+        <v>1.639472448745924</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.09292704110503</v>
@@ -21229,7 +21079,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.7115313648678</v>
+        <v>1.631467688466185</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.861250376520417</v>
@@ -21318,7 +21168,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.708380766994192</v>
+        <v>1.62096481156255</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.910493899831569</v>
@@ -21407,7 +21257,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.705118584797065</v>
+        <v>1.62383239971849</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.050803266221063</v>
@@ -21496,7 +21346,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.703270805725725</v>
+        <v>1.622622879768438</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.202435251618267</v>
@@ -21585,7 +21435,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.705334076014454</v>
+        <v>1.615683884064147</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.153776876468836</v>
@@ -21674,7 +21524,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.700824961436794</v>
+        <v>1.6080354378351</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.148178602949657</v>
@@ -21763,7 +21613,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.699844862388771</v>
+        <v>1.603566923326693</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.104069921521731</v>
@@ -21852,7 +21702,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.723694574398962</v>
+        <v>1.626080454403657</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.779090641443267</v>
@@ -21941,7 +21791,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.729031392837547</v>
+        <v>1.63099963679759</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.672418123149702</v>
@@ -22030,7 +21880,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.741736570553493</v>
+        <v>1.640276234726293</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.851286923775793</v>
@@ -22119,7 +21969,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.734694644152187</v>
+        <v>1.647929204687448</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.550086350589166</v>
@@ -22208,7 +22058,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.73863142915429</v>
+        <v>1.655808663241649</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.350812942541196</v>
@@ -22297,7 +22147,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.731177383995874</v>
+        <v>1.657164000693628</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.539143242473173</v>
@@ -22386,7 +22236,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.730769316357825</v>
+        <v>1.655577569051128</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.427240561470105</v>
@@ -22475,7 +22325,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.736679683620758</v>
+        <v>1.658628331451852</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.643456026210356</v>
@@ -22564,7 +22414,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.737350534427515</v>
+        <v>1.648601387422421</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.50858872071011</v>
@@ -22653,7 +22503,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.740120828889478</v>
+        <v>1.654874274108857</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.546758931632529</v>
@@ -22742,7 +22592,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.739895341595789</v>
+        <v>1.653085249727153</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.498997211242941</v>
@@ -22831,7 +22681,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.724394795552939</v>
+        <v>1.648567132796533</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.161688460135192</v>
@@ -22920,7 +22770,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.733262185573979</v>
+        <v>1.667337726223076</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.245614965916926</v>
@@ -23009,7 +22859,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.736215496663297</v>
+        <v>1.676143863397938</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.897341451304505</v>
@@ -23098,7 +22948,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.73998185248619</v>
+        <v>1.676161300208846</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.403143541698427</v>
@@ -23187,7 +23037,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.744267778949693</v>
+        <v>1.683176772359013</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.145998014356188</v>
@@ -23276,7 +23126,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.730634050902325</v>
+        <v>1.674077617017144</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.310594595245562</v>
@@ -23365,7 +23215,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.693852144556831</v>
+        <v>1.645513289156778</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.198023295000767</v>
@@ -23454,7 +23304,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.699906932525875</v>
+        <v>1.644961858828138</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.693460334326162</v>
@@ -23543,7 +23393,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.676510231979037</v>
+        <v>1.624967642713574</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.788968438925163</v>
@@ -23632,7 +23482,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.675649344671688</v>
+        <v>1.628035286119474</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.14000768059504</v>
@@ -23721,7 +23571,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.676461184085856</v>
+        <v>1.632225433001784</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.914787261277692</v>
@@ -23810,7 +23660,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.665208277045176</v>
+        <v>1.614721119170639</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.035093091490686</v>
@@ -23899,7 +23749,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.660854451692665</v>
+        <v>1.623513180352086</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.002970441506805</v>
@@ -23988,7 +23838,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.659737539055232</v>
+        <v>1.62481888234658</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.060870428242419</v>
@@ -24077,7 +23927,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.667421758004927</v>
+        <v>1.628316557739326</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.673892543230932</v>
@@ -24166,7 +24016,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.674308874161584</v>
+        <v>1.627214867405023</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.129942839499329</v>
@@ -24255,7 +24105,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.670226200728978</v>
+        <v>1.618127064445289</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.240793252343605</v>
@@ -24344,7 +24194,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.670901611194264</v>
+        <v>1.617727518631206</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.03723561965699</v>
@@ -24433,7 +24283,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.672113949425531</v>
+        <v>1.612761878318667</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.937476312287207</v>
@@ -24522,7 +24372,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.669248117287991</v>
+        <v>1.608359190581273</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.741189960874731</v>
@@ -24611,7 +24461,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.670447847428337</v>
+        <v>1.606735175869122</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.75140314721817</v>
@@ -24700,7 +24550,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.695328215066707</v>
+        <v>1.625959722142376</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.629439759735018</v>
@@ -24789,7 +24639,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.699278764002685</v>
+        <v>1.637189679896337</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.320695410780027</v>
@@ -24878,7 +24728,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.726127596676587</v>
+        <v>1.654719445445537</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.405969042090579</v>
@@ -24967,7 +24817,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.725490214302091</v>
+        <v>1.648962114917836</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.716616148876627</v>
@@ -25056,7 +24906,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.723534087195599</v>
+        <v>1.644210118822203</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.849637309139108</v>
@@ -25145,7 +24995,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.721584187565386</v>
+        <v>1.651074528953425</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.641774906368167</v>
@@ -25234,7 +25084,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.715354431551452</v>
+        <v>1.637763659761114</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.197833577806801</v>
@@ -25323,7 +25173,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.711172712287261</v>
+        <v>1.631955934066777</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.280508580978895</v>
@@ -25412,7 +25262,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.719080141366229</v>
+        <v>1.643673269381102</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.909301614052283</v>
@@ -25501,7 +25351,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.712063326854137</v>
+        <v>1.634105984676157</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.296017568147877</v>
@@ -25590,7 +25440,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.704867566194268</v>
+        <v>1.625572443655559</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.084589956893695</v>
@@ -25679,7 +25529,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.698464065426089</v>
+        <v>1.619263286530137</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.283266438854139</v>
@@ -25768,7 +25618,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.703223316862205</v>
+        <v>1.620299904647588</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.236513359884359</v>
@@ -25857,7 +25707,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.692675326517718</v>
+        <v>1.601843681464175</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.756159624652669</v>
@@ -25946,7 +25796,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.695833994017662</v>
+        <v>1.61270596555158</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.147464929264578</v>
@@ -26035,7 +25885,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.698251469268118</v>
+        <v>1.609849953574623</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.102895800282314</v>
@@ -26124,7 +25974,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.692091076124434</v>
+        <v>1.598307082201782</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.908869117049004</v>
@@ -26410,7 +26260,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.774440795227251</v>
+        <v>1.705529087274822</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.836952746715666</v>
@@ -26499,7 +26349,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.773855989253279</v>
+        <v>1.707669903974841</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.976295075584166</v>
@@ -26588,7 +26438,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.783703130650983</v>
+        <v>1.7173438821617</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.463723257164657</v>
@@ -26677,7 +26527,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.776917517045524</v>
+        <v>1.712248604286758</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.63528650467441</v>
@@ -26766,7 +26616,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.782487141307376</v>
+        <v>1.712531302564857</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.634016788951527</v>
@@ -26855,7 +26705,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.798832027525816</v>
+        <v>1.722240162636903</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.133681733303778</v>
@@ -26944,7 +26794,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.807949237711254</v>
+        <v>1.723450526946074</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.765216717304725</v>
@@ -27033,7 +26883,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.803023495574947</v>
+        <v>1.71579660268098</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.659005477730906</v>
@@ -27122,7 +26972,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.795472933353789</v>
+        <v>1.709650484838452</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.898523307085758</v>
@@ -27211,7 +27061,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.785985236573842</v>
+        <v>1.705734208554513</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.972929934299514</v>
@@ -27300,7 +27150,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.78934587063724</v>
+        <v>1.709586485183745</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.986979933182144</v>
@@ -27389,7 +27239,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.791045366801504</v>
+        <v>1.721431629567469</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.687324320189533</v>
@@ -27478,7 +27328,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.794076447731058</v>
+        <v>1.728223670226987</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.832166333914744</v>
@@ -27567,7 +27417,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.792496724510782</v>
+        <v>1.724749927300274</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.794578022262858</v>
@@ -27656,7 +27506,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.787644400776511</v>
+        <v>1.726524127811131</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.813677748831763</v>
@@ -27745,7 +27595,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.794778997842883</v>
+        <v>1.731800492695823</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.070310069049008</v>
@@ -27834,7 +27684,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.787339570966433</v>
+        <v>1.716910708852356</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.984627371781582</v>
@@ -27923,7 +27773,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.789524558495759</v>
+        <v>1.716437292405826</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.038282294419854</v>
@@ -28012,7 +27862,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.78521108747028</v>
+        <v>1.705532576139218</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.441443848454078</v>
@@ -28101,7 +27951,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.789150503391412</v>
+        <v>1.717437488913037</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.014580929816096</v>
@@ -28190,7 +28040,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.787386330193188</v>
+        <v>1.711095701707492</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.172816287281329</v>
@@ -28279,7 +28129,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.790211783090134</v>
+        <v>1.713678076208165</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.623664085429014</v>
@@ -28368,7 +28218,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.787125832330748</v>
+        <v>1.713209878506899</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.62067830545526</v>
@@ -28457,7 +28307,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.795243188456955</v>
+        <v>1.721917682569922</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.32334029900395</v>
@@ -28546,7 +28396,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.797230009124847</v>
+        <v>1.72728219801909</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.711123243961365</v>
@@ -28635,7 +28485,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.795756347838824</v>
+        <v>1.720836391964193</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.254026802369677</v>
@@ -28724,7 +28574,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.797754943693497</v>
+        <v>1.71766757251621</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.639158681848238</v>
@@ -28813,7 +28663,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.809002177500836</v>
+        <v>1.72524764505018</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.424137805614751</v>
@@ -28902,7 +28752,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.806210173612467</v>
+        <v>1.727383142904674</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.718684867162138</v>
@@ -28991,7 +28841,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.801251625784057</v>
+        <v>1.725781330663028</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.90860665107487</v>
@@ -29080,7 +28930,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.796157722434411</v>
+        <v>1.726614521226079</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.786401213367394</v>
@@ -29169,7 +29019,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.808186237586455</v>
+        <v>1.747338344215371</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.59980677238703</v>
@@ -29258,7 +29108,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.805270741820365</v>
+        <v>1.747586086310416</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.632072089702022</v>
@@ -29347,7 +29197,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.805224920734573</v>
+        <v>1.754340868531512</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.726521136074568</v>
@@ -29436,7 +29286,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.805302955633275</v>
+        <v>1.752999880048778</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.750999216961491</v>
@@ -29525,7 +29375,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.808100970650576</v>
+        <v>1.756837264836557</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.648497301842189</v>
@@ -29614,7 +29464,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.791643459725024</v>
+        <v>1.746888955626239</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.238082042790754</v>
@@ -29703,7 +29553,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.795102819467015</v>
+        <v>1.747378710362558</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.191191038112998</v>
@@ -29792,7 +29642,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.785576529232027</v>
+        <v>1.73863550175252</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.77840266655931</v>
@@ -29881,7 +29731,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.776855340172668</v>
+        <v>1.724324193339311</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.387875162776006</v>
@@ -29970,7 +29820,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.769266490075703</v>
+        <v>1.725511516984261</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.510772607012322</v>
@@ -30059,7 +29909,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.770469841555716</v>
+        <v>1.719848501563395</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.682748808831427</v>
@@ -30148,7 +29998,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.7621053178059</v>
+        <v>1.705658021386289</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.764874646713755</v>
@@ -30237,7 +30087,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.771347645643738</v>
+        <v>1.713411631510609</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.835212071422053</v>
@@ -30326,7 +30176,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.7765457970476</v>
+        <v>1.711964116356901</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.407957506863308</v>
@@ -30415,7 +30265,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.765047978119521</v>
+        <v>1.701291119138315</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.612441722204105</v>
@@ -30504,7 +30354,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.75760564535626</v>
+        <v>1.688924645732103</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.607793920909032</v>
@@ -30593,7 +30443,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.75459723544243</v>
+        <v>1.686117162466118</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.704284145445408</v>
@@ -30682,7 +30532,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.760155060845649</v>
+        <v>1.685905427246913</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.505517401878464</v>
@@ -30771,7 +30621,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.756319851087605</v>
+        <v>1.685810923259899</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.624928990421734</v>
@@ -30860,7 +30710,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.757167031442331</v>
+        <v>1.687416146887023</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.440646285372847</v>
@@ -30949,7 +30799,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.773836912314914</v>
+        <v>1.697183675818315</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.750785378676345</v>
@@ -31038,7 +30888,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.773816262204305</v>
+        <v>1.702417684460336</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.232102801176199</v>
@@ -31127,7 +30977,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.713655839932843</v>
+        <v>1.656947176986179</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.411184903900125</v>
@@ -31216,7 +31066,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.714011610759677</v>
+        <v>1.656649348566513</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.414635223415618</v>
@@ -31305,7 +31155,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.707382954792925</v>
+        <v>1.650015956078979</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.54493239720503</v>
@@ -31394,7 +31244,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.697925049778249</v>
+        <v>1.64760478615269</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.475272182555349</v>
@@ -31483,7 +31333,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.698264198165371</v>
+        <v>1.652907502128196</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.426369028952612</v>
@@ -31572,7 +31422,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.696330435713399</v>
+        <v>1.652860559105993</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.519512023848082</v>
@@ -31661,7 +31511,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.702649133129418</v>
+        <v>1.661444079493843</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.528273641546106</v>
@@ -31750,7 +31600,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.709761799537959</v>
+        <v>1.663339710274527</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.525072607319212</v>
@@ -31839,7 +31689,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.701901734697854</v>
+        <v>1.658845297527665</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.497628554230524</v>
@@ -31928,7 +31778,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.697949440248306</v>
+        <v>1.654909872538768</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.500929058521921</v>
@@ -32017,7 +31867,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.694159540776621</v>
+        <v>1.650950934389865</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.560068582304883</v>
@@ -32106,7 +31956,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.683374708135298</v>
+        <v>1.636783055893462</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.472322191184924</v>
@@ -32195,7 +32045,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.580517590438167</v>
+        <v>1.55352995250451</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.977030561858849</v>
@@ -32284,7 +32134,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.570041262533856</v>
+        <v>1.551420629118583</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.975007659223137</v>
@@ -32373,7 +32223,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.56519614870225</v>
+        <v>1.547586099022616</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.962196850722579</v>
@@ -32659,7 +32509,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.532407059096275</v>
+        <v>1.522697023903528</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.851103290927844</v>
@@ -32748,7 +32598,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.540366407229172</v>
+        <v>1.529684770076313</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.835004081677527</v>
@@ -32837,7 +32687,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.549478795649863</v>
+        <v>1.536574247017397</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.838945781941112</v>
@@ -32926,7 +32776,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.550353479859444</v>
+        <v>1.535120816814112</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.705828851373158</v>
@@ -33015,7 +32865,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.548485049546045</v>
+        <v>1.543460155729372</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.69524766315863</v>
@@ -33104,7 +32954,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.535343981282978</v>
+        <v>1.527524540907465</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.740140900375805</v>
@@ -33193,7 +33043,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.536880356940225</v>
+        <v>1.531338948821171</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.255231529484759</v>
@@ -33282,7 +33132,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.526197627530298</v>
+        <v>1.522697997923026</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.221078965068374</v>
@@ -33371,7 +33221,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.529928594270403</v>
+        <v>1.527262750796663</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.988041408985696</v>
@@ -33460,7 +33310,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.522019615400636</v>
+        <v>1.517016925004919</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.100714091082256</v>
@@ -33549,7 +33399,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.513850589421222</v>
+        <v>1.508021928674858</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.164582546650626</v>
@@ -33638,7 +33488,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.520207440653504</v>
+        <v>1.515772080918048</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.083687646608705</v>
@@ -33727,7 +33577,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.514188296264907</v>
+        <v>1.510117908522409</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.846963202930745</v>
@@ -33816,7 +33666,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.494436520368675</v>
+        <v>1.491156977761056</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.111700065630568</v>
@@ -33905,7 +33755,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.508965852062706</v>
+        <v>1.503781802884132</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.134812491235895</v>
@@ -33994,7 +33844,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.506008243944068</v>
+        <v>1.496980299456162</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.995895940208313</v>
@@ -34083,7 +33933,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.497569245697685</v>
+        <v>1.486884094540102</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.946070818656838</v>
@@ -34172,7 +34022,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.484014268459672</v>
+        <v>1.469982343282489</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.862070482400183</v>
@@ -34261,7 +34111,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.47569340272931</v>
+        <v>1.459030925525665</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.465013278196223</v>
@@ -34350,7 +34200,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.481201533755911</v>
+        <v>1.470051395998609</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.721495618488703</v>
@@ -34439,7 +34289,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.494932518288252</v>
+        <v>1.485630654863574</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.90318734269546</v>
@@ -34528,7 +34378,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.498537275875712</v>
+        <v>1.482676659411065</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.753838731088667</v>
@@ -34617,7 +34467,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.479379720746001</v>
+        <v>1.459508325115774</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.614400941359377</v>
@@ -34706,7 +34556,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.469293256222866</v>
+        <v>1.457293412134373</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.742623985070546</v>
@@ -34795,7 +34645,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.464485486510502</v>
+        <v>1.451564983437866</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.62026621943554</v>
@@ -34884,7 +34734,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.470740664176229</v>
+        <v>1.4564620992656</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.633561919310312</v>
@@ -34973,7 +34823,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.472409706833346</v>
+        <v>1.450863005362487</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.47928657360607</v>
@@ -35062,7 +34912,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.475178685740651</v>
+        <v>1.453107107492771</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.302718561139679</v>
@@ -35151,7 +35001,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.472111201256798</v>
+        <v>1.45615854786573</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.584802786764876</v>
@@ -35240,7 +35090,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.466060359729138</v>
+        <v>1.450967711530632</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.551467500304935</v>
@@ -35329,7 +35179,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.434952832750288</v>
+        <v>1.425272931608797</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.531119357736412</v>
@@ -35418,7 +35268,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.439697184289798</v>
+        <v>1.433052886829661</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.629013745767003</v>
@@ -35507,7 +35357,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.440857431465652</v>
+        <v>1.439996662578643</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.524849576698672</v>
@@ -35596,7 +35446,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.44838432181257</v>
+        <v>1.453864516496411</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.570304243283386</v>
@@ -35685,7 +35535,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.455224624649853</v>
+        <v>1.457596151739972</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.524694102115566</v>
@@ -35774,7 +35624,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.46766825292978</v>
+        <v>1.471594161966171</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.631430587302148</v>
@@ -35863,7 +35713,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.459367588496143</v>
+        <v>1.454931201399769</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.151996219884263</v>
@@ -35952,7 +35802,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.465060065506608</v>
+        <v>1.464828527229081</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.582424441177929</v>
@@ -36041,7 +35891,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.465288089019114</v>
+        <v>1.465461621695467</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.32071422214377</v>
@@ -36130,7 +35980,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.474521681771708</v>
+        <v>1.475424462089647</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.581467349258696</v>
@@ -36219,7 +36069,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.479832267363995</v>
+        <v>1.484462310413585</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.680047164427028</v>
@@ -36308,7 +36158,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.482641996704652</v>
+        <v>1.483358924835572</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.656401900952174</v>
@@ -36397,7 +36247,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.49213696033198</v>
+        <v>1.491284346347658</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.682476184391116</v>
@@ -36486,7 +36336,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.506747835119717</v>
+        <v>1.504474567228205</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.805307875440049</v>
@@ -36575,7 +36425,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.513030906886474</v>
+        <v>1.509081062930867</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.50072422709459</v>
@@ -36664,7 +36514,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.540439353775696</v>
+        <v>1.532077861607738</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.64013326167471</v>
@@ -36753,7 +36603,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.5415239637653</v>
+        <v>1.530410753827012</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.809282608548274</v>
@@ -36842,7 +36692,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.522686386222686</v>
+        <v>1.510203774611576</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.723712401648475</v>
@@ -36931,7 +36781,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.524347345854655</v>
+        <v>1.512243022675586</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.812869209321012</v>
@@ -37020,7 +36870,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.500096010878005</v>
+        <v>1.488576623084871</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.717957522115653</v>
@@ -37109,7 +36959,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.487784300095595</v>
+        <v>1.480470535589111</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.675568416481257</v>
@@ -37198,7 +37048,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.499851206910495</v>
+        <v>1.495540354743356</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.98353777991002</v>
@@ -37287,7 +37137,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.494093522769343</v>
+        <v>1.491531957796356</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.470411593599052</v>
@@ -37376,7 +37226,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.485129740466918</v>
+        <v>1.487004954739271</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.664668748150012</v>
@@ -37465,7 +37315,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.461400010043203</v>
+        <v>1.460802277854336</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.967700760908091</v>
@@ -37554,7 +37404,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.445479115844963</v>
+        <v>1.43970522829693</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.476265584495067</v>
@@ -37643,7 +37493,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.436920691788099</v>
+        <v>1.44201800340086</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.687534564638016</v>
@@ -37732,7 +37582,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.420310243825724</v>
+        <v>1.424845030427785</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.748675160974404</v>
@@ -37821,7 +37671,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.411440324211145</v>
+        <v>1.416083608506737</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.875776336118598</v>
@@ -37910,7 +37760,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.414252541436253</v>
+        <v>1.417610021363398</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.774939106971104</v>
@@ -37999,7 +37849,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.399129474011039</v>
+        <v>1.402899459740516</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.743239024095767</v>
@@ -38088,7 +37938,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.392369899876645</v>
+        <v>1.397647937221823</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.583416304135239</v>
@@ -38177,7 +38027,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.398638092443319</v>
+        <v>1.404185324957163</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.453040688646241</v>
@@ -38266,7 +38116,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.409869883348719</v>
+        <v>1.415355278083523</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.38942094809705</v>
@@ -38355,7 +38205,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.408791084169658</v>
+        <v>1.412516986202319</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.555456784628169</v>
@@ -38444,7 +38294,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.405419241540958</v>
+        <v>1.405436352544622</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.581541172926797</v>
@@ -38533,7 +38383,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.416293483753235</v>
+        <v>1.413459937319056</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.813840484098248</v>
@@ -38622,7 +38472,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.419081734269126</v>
+        <v>1.41306841641793</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.434540913182202</v>
@@ -38908,7 +38758,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.772878560403502</v>
+        <v>1.759057434098972</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.276619657866008</v>
@@ -38997,7 +38847,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.790239064016886</v>
+        <v>1.780562761458131</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.231003000485237</v>
@@ -39086,7 +38936,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.821367917853338</v>
+        <v>1.806604788561822</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.146227700527906</v>
@@ -39175,7 +39025,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.826120794530012</v>
+        <v>1.813312038704579</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.164422479682718</v>
@@ -39264,7 +39114,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.806819395714055</v>
+        <v>1.802287901806699</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.638434557262979</v>
@@ -39353,7 +39203,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.811761819407728</v>
+        <v>1.809118366290925</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.630405730399231</v>
@@ -39442,7 +39292,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.811289886050331</v>
+        <v>1.807278983198784</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.278922874337808</v>
@@ -39531,7 +39381,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.804837899968034</v>
+        <v>1.804964470242673</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.226536977631191</v>
@@ -39620,7 +39470,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.804195708914077</v>
+        <v>1.797084958251335</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.109026374060204</v>
@@ -39709,7 +39559,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.801893992355707</v>
+        <v>1.797169663198581</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.305883360855384</v>
@@ -39798,7 +39648,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.815792824962169</v>
+        <v>1.812529482900867</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.521422880348582</v>
@@ -39887,7 +39737,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.80458115195747</v>
+        <v>1.801181427872098</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.400551905483993</v>
@@ -39976,7 +39826,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.789062116590696</v>
+        <v>1.788347820965674</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.380166850221809</v>
@@ -40065,7 +39915,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.784213192509374</v>
+        <v>1.784435648222991</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.394848659278077</v>
@@ -40154,7 +40004,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.775146865046839</v>
+        <v>1.782827673313361</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.576968861326067</v>
@@ -40243,7 +40093,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.772420934143535</v>
+        <v>1.780641130468451</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.320892897268553</v>
@@ -40332,7 +40182,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.778109224882257</v>
+        <v>1.777167432203933</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.450343470536545</v>
@@ -40421,7 +40271,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.77725161233707</v>
+        <v>1.767150429685863</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.42308260660875</v>
@@ -40510,7 +40360,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.796440359793144</v>
+        <v>1.775393826958536</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.368858096364785</v>
@@ -40599,7 +40449,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.841305790944344</v>
+        <v>1.808943033581588</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.992401746264288</v>
@@ -40688,7 +40538,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.844487976548977</v>
+        <v>1.818656634673569</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.405571216886651</v>
@@ -40777,7 +40627,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.860628788816624</v>
+        <v>1.838031661390581</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.686487029329492</v>
@@ -40866,7 +40716,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.869170967172261</v>
+        <v>1.844801570108921</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.499665608790453</v>
@@ -40955,7 +40805,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.870762273475085</v>
+        <v>1.854710190575638</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.260524432648972</v>
@@ -41044,7 +40894,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.869195232717329</v>
+        <v>1.852692821988569</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.789705640358441</v>
@@ -41133,7 +40983,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.872482786253965</v>
+        <v>1.855076219321149</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.759757615852634</v>
@@ -41222,7 +41072,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.90021081861928</v>
+        <v>1.87947444158854</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.558152477217382</v>
@@ -41311,7 +41161,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.914011351039054</v>
+        <v>1.888953075652044</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.902616468284037</v>
@@ -41400,7 +41250,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.916509780153494</v>
+        <v>1.89248343597498</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.009627785962233</v>
@@ -41489,7 +41339,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.909038848375165</v>
+        <v>1.88428843114016</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.686974227954945</v>
@@ -41578,7 +41428,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.883686228282354</v>
+        <v>1.870681421951606</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.644592619017658</v>
@@ -41667,7 +41517,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.886999889315812</v>
+        <v>1.878652306160861</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.582161341463699</v>
@@ -41756,7 +41606,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.88918708673976</v>
+        <v>1.892656090379891</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.685451317225284</v>
@@ -41845,7 +41695,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.862934433954681</v>
+        <v>1.877779626246096</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.324222096303485</v>
@@ -41934,7 +41784,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.854346934721071</v>
+        <v>1.867057769142207</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.650834242025945</v>
@@ -42023,7 +41873,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.836779227048842</v>
+        <v>1.84376816923659</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.373087355306065</v>
@@ -42112,7 +41962,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.803589222613165</v>
+        <v>1.815741744640803</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.767869356927359</v>
@@ -42201,7 +42051,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.805612163323685</v>
+        <v>1.814729449513034</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.522748424744039</v>
@@ -42290,7 +42140,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.790568300012781</v>
+        <v>1.801366611724099</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.509001555294487</v>
@@ -42379,7 +42229,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.781458479608875</v>
+        <v>1.783062505536902</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.341190053396302</v>
@@ -42468,7 +42318,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.774430766113022</v>
+        <v>1.779999154105176</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.2567323057051</v>
@@ -42557,7 +42407,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.75566338181788</v>
+        <v>1.755735455483971</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.329359718062258</v>
@@ -42646,7 +42496,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.731318362276108</v>
+        <v>1.731516769630149</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.214812287725959</v>
@@ -42735,7 +42585,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.728903408342631</v>
+        <v>1.724447048154889</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.989921230894324</v>
@@ -42824,7 +42674,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.748860566955557</v>
+        <v>1.739325967907326</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.940884440131955</v>
@@ -42913,7 +42763,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.759653790279998</v>
+        <v>1.744212985163387</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.334435327677388</v>
@@ -43002,7 +42852,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.76008526186947</v>
+        <v>1.743394193035366</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.417413368298681</v>
@@ -43091,7 +42941,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.739939425315437</v>
+        <v>1.725360466565795</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.620886930903497</v>
@@ -43180,7 +43030,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.755221987721092</v>
+        <v>1.738992529430692</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.294065532801787</v>
@@ -43269,7 +43119,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.746606385989592</v>
+        <v>1.735637153279576</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.505555578615344</v>
@@ -43358,7 +43208,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.770606920849716</v>
+        <v>1.763403976195062</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.220755555751061</v>
@@ -43447,7 +43297,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.785742676158824</v>
+        <v>1.773285711312684</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.330742719574954</v>
@@ -43536,7 +43386,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.780449511665408</v>
+        <v>1.772424556996613</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.754838847514647</v>
@@ -43625,7 +43475,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.787717298218617</v>
+        <v>1.778730485984146</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.181594533518482</v>
@@ -43714,7 +43564,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.787160621406601</v>
+        <v>1.782818524623553</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.26021287594202</v>
@@ -43803,7 +43653,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.796908284227927</v>
+        <v>1.7835573805505</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.628828055020393</v>
@@ -43892,7 +43742,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.787359926793086</v>
+        <v>1.78501616299536</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.059106743113215</v>
@@ -43981,7 +43831,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.793962979614858</v>
+        <v>1.790883768941092</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.1982174882001</v>
@@ -44070,7 +43920,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.78879279514072</v>
+        <v>1.790390381808369</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.240983083550983</v>
@@ -44159,7 +44009,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.788713706781602</v>
+        <v>1.78878325574764</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.161955315772527</v>
@@ -44248,7 +44098,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.785590212463252</v>
+        <v>1.785301631396711</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.321098216086458</v>
@@ -44337,7 +44187,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.77670798435332</v>
+        <v>1.775073822843244</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.451409533450681</v>
@@ -44426,7 +44276,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.782270282240258</v>
+        <v>1.780330468093111</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.105882504322439</v>
@@ -44515,7 +44365,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.78884980179327</v>
+        <v>1.78339525175461</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.07574762045452</v>
@@ -44604,7 +44454,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.808103547235781</v>
+        <v>1.795783418324477</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.094432219537365</v>
@@ -44693,7 +44543,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.803176962358545</v>
+        <v>1.786151170985386</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.772275806290206</v>
@@ -44782,7 +44632,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.809364274568403</v>
+        <v>1.792720518981703</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.16682770295271</v>
@@ -44871,7 +44721,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.812301508135283</v>
+        <v>1.790546423572602</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.290593158338717</v>
